--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>1.174570236302778</v>
+        <v>0.6973358078749999</v>
       </c>
       <c r="R2">
-        <v>10.571132126725</v>
+        <v>6.276022270875</v>
       </c>
       <c r="S2">
-        <v>2.295755471258294E-05</v>
+        <v>2.107732162696404E-05</v>
       </c>
       <c r="T2">
-        <v>2.295755471258295E-05</v>
+        <v>2.107732162696405E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.1297207589094444</v>
+        <v>0.119313146225</v>
       </c>
       <c r="R3">
-        <v>1.167486830185</v>
+        <v>1.073818316025</v>
       </c>
       <c r="S3">
-        <v>2.535456227288286E-06</v>
+        <v>3.606299187435537E-06</v>
       </c>
       <c r="T3">
-        <v>2.535456227288287E-06</v>
+        <v>3.606299187435537E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>553.3812587337388</v>
+        <v>394.41984414735</v>
       </c>
       <c r="R4">
-        <v>4980.431328603649</v>
+        <v>3549.77859732615</v>
       </c>
       <c r="S4">
-        <v>0.01081610969837563</v>
+        <v>0.0119215359619693</v>
       </c>
       <c r="T4">
-        <v>0.01081610969837563</v>
+        <v>0.0119215359619693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>0.2223256327916666</v>
+        <v>0.18539503745</v>
       </c>
       <c r="R5">
-        <v>2.000930695124999</v>
+        <v>1.66855533705</v>
       </c>
       <c r="S5">
-        <v>4.345464171551339E-06</v>
+        <v>5.603657216864375E-06</v>
       </c>
       <c r="T5">
-        <v>4.34546417155134E-06</v>
+        <v>5.603657216864377E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>605.3138986600466</v>
+        <v>282.701953696925</v>
       </c>
       <c r="R6">
-        <v>5447.82508794042</v>
+        <v>2544.317583272325</v>
       </c>
       <c r="S6">
-        <v>0.01183115876536879</v>
+        <v>0.008544807157973002</v>
       </c>
       <c r="T6">
-        <v>0.0118311587653688</v>
+        <v>0.008544807157973002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>39.75554591578555</v>
+        <v>25.66149057895222</v>
       </c>
       <c r="R7">
-        <v>357.79991324207</v>
+        <v>230.95341521057</v>
       </c>
       <c r="S7">
-        <v>0.0007770417573010758</v>
+        <v>0.0007756313160055557</v>
       </c>
       <c r="T7">
-        <v>0.000777041757301076</v>
+        <v>0.000775631316005556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>4.390643852246889</v>
@@ -948,10 +948,10 @@
         <v>39.515794670222</v>
       </c>
       <c r="S8">
-        <v>8.581730010349106E-05</v>
+        <v>0.0001327093942088927</v>
       </c>
       <c r="T8">
-        <v>8.581730010349108E-05</v>
+        <v>0.0001327093942088927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>18730.2328635316</v>
+        <v>14514.38603960708</v>
       </c>
       <c r="R9">
-        <v>168572.0957717844</v>
+        <v>130629.4743564637</v>
       </c>
       <c r="S9">
-        <v>0.3660916413968294</v>
+        <v>0.4387045370679622</v>
       </c>
       <c r="T9">
-        <v>0.3660916413968295</v>
+        <v>0.4387045370679623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>7.525030542683331</v>
+        <v>6.822413180538222</v>
       </c>
       <c r="R10">
-        <v>67.72527488414998</v>
+        <v>61.40171862484399</v>
       </c>
       <c r="S10">
-        <v>0.0001470804342372061</v>
+        <v>0.0002062108316457186</v>
       </c>
       <c r="T10">
-        <v>0.0001470804342372061</v>
+        <v>0.0002062108316457186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>20487.99105227739</v>
+        <v>10403.24251174182</v>
       </c>
       <c r="R11">
-        <v>184391.9194704965</v>
+        <v>93629.18260567641</v>
       </c>
       <c r="S11">
-        <v>0.4004478923407022</v>
+        <v>0.3144431791785932</v>
       </c>
       <c r="T11">
-        <v>0.4004478923407024</v>
+        <v>0.3144431791785933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>2.014222527577778</v>
+        <v>5.569061743983333</v>
       </c>
       <c r="R12">
-        <v>18.1280027482</v>
+        <v>50.12155569585</v>
       </c>
       <c r="S12">
-        <v>3.93689729664356E-05</v>
+        <v>0.0001683276610963866</v>
       </c>
       <c r="T12">
-        <v>3.936897296643561E-05</v>
+        <v>0.0001683276610963867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.2224528315244444</v>
+        <v>0.9528583943233333</v>
       </c>
       <c r="R13">
-        <v>2.00207548372</v>
+        <v>8.57572554891</v>
       </c>
       <c r="S13">
-        <v>4.347950333533707E-06</v>
+        <v>2.880061889164525E-05</v>
       </c>
       <c r="T13">
-        <v>4.347950333533709E-06</v>
+        <v>2.880061889164525E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>948.9709199420887</v>
+        <v>3149.91491947394</v>
       </c>
       <c r="R14">
-        <v>8540.738279478797</v>
+        <v>28349.23427526546</v>
       </c>
       <c r="S14">
-        <v>0.01854810478068739</v>
+        <v>0.09520774511442519</v>
       </c>
       <c r="T14">
-        <v>0.01854810478068739</v>
+        <v>0.09520774511442519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.3812571476666665</v>
+        <v>1.480601453313333</v>
       </c>
       <c r="R15">
-        <v>3.431314328999999</v>
+        <v>13.32541307982</v>
       </c>
       <c r="S15">
-        <v>7.451859034562283E-06</v>
+        <v>4.475191533320701E-05</v>
       </c>
       <c r="T15">
-        <v>7.451859034562286E-06</v>
+        <v>4.475191533320702E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N16">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O16">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P16">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q16">
-        <v>1038.028083169226</v>
+        <v>2257.713740644604</v>
       </c>
       <c r="R16">
-        <v>9342.252748523038</v>
+        <v>20319.42366580143</v>
       </c>
       <c r="S16">
-        <v>0.02028877097002492</v>
+        <v>0.06824052073016801</v>
       </c>
       <c r="T16">
-        <v>0.02028877097002493</v>
+        <v>0.06824052073016801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N17">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P17">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q17">
-        <v>0.1094354035188889</v>
+        <v>0.047240705535</v>
       </c>
       <c r="R17">
-        <v>0.9849186316700002</v>
+        <v>0.425166349815</v>
       </c>
       <c r="S17">
-        <v>2.138968948921035E-06</v>
+        <v>1.427873820907214E-06</v>
       </c>
       <c r="T17">
-        <v>2.138968948921035E-06</v>
+        <v>1.427873820907214E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.093691</v>
       </c>
       <c r="O18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P18">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q18">
-        <v>0.01208615982022222</v>
+        <v>0.008082816261000001</v>
       </c>
       <c r="R18">
-        <v>0.108775438382</v>
+        <v>0.072745346349</v>
       </c>
       <c r="S18">
-        <v>2.362299560826332E-07</v>
+        <v>2.443071416394128E-07</v>
       </c>
       <c r="T18">
-        <v>2.362299560826333E-07</v>
+        <v>2.443071416394127E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N19">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P19">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q19">
-        <v>51.55885912786445</v>
+        <v>26.719797698766</v>
       </c>
       <c r="R19">
-        <v>464.02973215078</v>
+        <v>240.478179288894</v>
       </c>
       <c r="S19">
-        <v>0.001007743336892441</v>
+        <v>0.0008076191750721872</v>
       </c>
       <c r="T19">
-        <v>0.001007743336892441</v>
+        <v>0.0008076191750721871</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N20">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P20">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q20">
-        <v>0.02071421068333333</v>
+        <v>0.012559504722</v>
       </c>
       <c r="R20">
-        <v>0.18642789615</v>
+        <v>0.113035542498</v>
       </c>
       <c r="S20">
-        <v>4.048694666293328E-07</v>
+        <v>3.796172769438792E-07</v>
       </c>
       <c r="T20">
-        <v>4.04869466629333E-07</v>
+        <v>3.796172769438792E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N21">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O21">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P21">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q21">
-        <v>56.39745390106934</v>
+        <v>19.151518677153</v>
       </c>
       <c r="R21">
-        <v>507.577085109624</v>
+        <v>172.363668094377</v>
       </c>
       <c r="S21">
-        <v>0.001102316058731133</v>
+        <v>0.0005788641774086566</v>
       </c>
       <c r="T21">
-        <v>0.001102316058731133</v>
+        <v>0.0005788641774086565</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N22">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P22">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q22">
-        <v>8.741644065601113</v>
+        <v>2.04684425558</v>
       </c>
       <c r="R22">
-        <v>78.67479659041001</v>
+        <v>18.42159830022</v>
       </c>
       <c r="S22">
-        <v>0.0001708597457276544</v>
+        <v>6.186688566392507E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001708597457276544</v>
+        <v>6.186688566392507E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.093691</v>
       </c>
       <c r="O23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P23">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q23">
-        <v>0.9654362653317778</v>
+        <v>0.350212086068</v>
       </c>
       <c r="R23">
-        <v>8.688926387986001</v>
+        <v>3.151908774612</v>
       </c>
       <c r="S23">
-        <v>1.886992807908393E-05</v>
+        <v>1.058533448640632E-05</v>
       </c>
       <c r="T23">
-        <v>1.886992807908394E-05</v>
+        <v>1.058533448640632E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N24">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P24">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q24">
-        <v>4118.495298886216</v>
+        <v>1157.714809942008</v>
       </c>
       <c r="R24">
-        <v>37066.45768997594</v>
+        <v>10419.43328947807</v>
       </c>
       <c r="S24">
-        <v>0.08049802237056085</v>
+        <v>0.03499250594316435</v>
       </c>
       <c r="T24">
-        <v>0.08049802237056088</v>
+        <v>0.03499250594316435</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N25">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P25">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q25">
-        <v>1.654640555716667</v>
+        <v>0.544177945736</v>
       </c>
       <c r="R25">
-        <v>14.89176500145</v>
+        <v>4.897601511623999</v>
       </c>
       <c r="S25">
-        <v>3.234076593588393E-05</v>
+        <v>1.644804906767998E-05</v>
       </c>
       <c r="T25">
-        <v>3.234076593588395E-05</v>
+        <v>1.644804906767998E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N26">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O26">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P26">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q26">
-        <v>4504.999774814195</v>
+        <v>829.7965821217641</v>
       </c>
       <c r="R26">
-        <v>40544.99797332776</v>
+        <v>7468.169239095876</v>
       </c>
       <c r="S26">
-        <v>0.08805244302462503</v>
+        <v>0.02508101441059374</v>
       </c>
       <c r="T26">
-        <v>0.08805244302462509</v>
+        <v>0.02508101441059374</v>
       </c>
     </row>
   </sheetData>
